--- a/data/dhb-cases.xlsx
+++ b/data/dhb-cases.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1520,6 +1520,384 @@
         <v>43916</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Auckland</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Bay of Plenty</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Canterbury</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Capital and Coast</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Counties Manukau</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>28</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hawke's Bay</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hutt Valley</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Lakes</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MidCentral</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nelson Marlborough</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Northland</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>South Canterbury</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Southern</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>39</v>
+      </c>
+      <c r="D77" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Tairāwhiti</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Taranaki</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Waikato</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Wairarapa</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Waitemata</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>47</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>West Coast</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>43917</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Total cases</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>368</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43917</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
